--- a/Texts/Город Сокровищ/Все персонажи/Урсаринг.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Урсаринг.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -73,6 +73,87 @@
   </si>
   <si>
     <t xml:space="preserve"> Óàë âïó. Ëàë áú ëóï-ìéáï îé\nòóàñàìòÿ, îï üâïìýøéïîéñïâàóû îéëàë îå\nðïìôœàåóòÿ...</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P01A/um0602.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Stealing Time Gears is\nunthinkable!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Who would go around stealing\nthem?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Это немыслимо!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Кто вообще осмелился красть\nШестерни Времени?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Üóï îåíúòìéíï!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ëóï âïïáþå ïòíåìéìòÿ ëñàòóû\nŠåòóåñîé Âñåíåîé?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I don\'t think that stench is just\na figment of my imagination…</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P01A/um0606.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Want proof? Fewer exploration\nteams are visiting Treasure Town lately!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I bet the stench is keeping them\nall away.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я не думаю, что эта вонь - \nвсего лишь плод моего воображения...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Хочешь доказательство? В Город\nСокровищ стало приходить меньше команд!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Полагаю, что их отпугивает\nзапах.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ îå äôíàý, œóï üóà âïîû - \nâòåãï ìéšû ðìïä íïåãï âïïáñàçåîéÿ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Öïœåšû äïëàèàóåìûòóâï? Â Ãïñïä\nÒïëñïâéþ òóàìï ðñéöïäéóû íåîûšå ëïíàîä!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðïìàãàý, œóï éö ïóðôãéâàåó\nèàðàö.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I hear the whole guild\'s going\noff on the expedition now.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> After the last expedition, they\ncame back with loads of treasure.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We expect big things from your\nupcoming expedition!</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P01A/um0802.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я слышал, что вся гильдия\nуходит в экспедицию.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> В прошлый раз они принесли\nмного сокровищ.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Надеюсь что и эта экспедиция\nбудет такой же успешной!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ òìúšàì, œóï âòÿ ãéìûäéÿ\nôöïäéó â üëòðåäéøéý.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Â ðñïšìúê ñàè ïîé ðñéîåòìé\níîïãï òïëñïâéþ.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îàäåýòû œóï é üóà üëòðåäéøéÿ\náôäåó óàëïê çå ôòðåšîïê!</t>
   </si>
 </sst>
 </file>
@@ -103,7 +184,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -135,11 +216,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -154,6 +244,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -436,10 +532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -515,17 +611,141 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
-      <c r="B5" s="4">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6">
         <v>551</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="7" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="4">
+        <v>520</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6">
+        <v>523</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="4">
+        <v>495</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="4">
+        <v>498</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6">
+        <v>501</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="4">
+        <v>470</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B12" s="4">
+        <v>473</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="B13" s="4">
+        <v>476</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Все персонажи/Урсаринг.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Урсаринг.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -154,6 +154,27 @@
   </si>
   <si>
     <t xml:space="preserve"> Îàäåýòû œóï é üóà üëòðåäéøéÿ\náôäåó óàëïê çå ôòðåšîïê!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Oh, what?[K] Nothing turned up on\nthe expedition?</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P01A/um1104.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The guild normally comes back\nwith lots of treasure after an expedition...[K]\nThat\'s not like you all to fail.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ох, что?[K] Вы ничего не нашли?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Обычно гильдия приносит гору\nсокровищ из экспедиций...[K] На вас это\nсовершенно не похоже.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ïö, œóï?[K] Âú îéœåãï îå îàšìé?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ïáúœîï ãéìûäéÿ ðñéîïòéó ãïñô\nòïëñïâéþ éè üëòðåäéøéê...[K] Îà âàò üóï\nòïâåñšåîîï îå ðïöïçå.</t>
   </si>
 </sst>
 </file>
@@ -532,10 +553,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -735,17 +756,49 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
-      <c r="B13" s="4">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6">
         <v>476</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="7" t="s">
         <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="4">
+        <v>448</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+      <c r="B15" s="4">
+        <v>451</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Все персонажи/Урсаринг.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Урсаринг.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -175,6 +175,114 @@
   </si>
   <si>
     <t xml:space="preserve"> Ïáúœîï ãéìûäéÿ ðñéîïòéó ãïñô\nòïëñïâéþ éè üëòðåäéøéê...[K] Îà âàò üóï\nòïâåñšåîîï îå ðïöïçå.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> You two are settled into the\nguild, it seems.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> You went out on that expedition,\ntoo...[K] Yeah, I\'d say you\'re looking more and\nmore like a true exploration team.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SCRIPT/T01P01A/um1202.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Похоже, вы уже освоились в\nгильдии.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Вы даже ходили в экспедицию...\nДа, я бы сказал, что вы всё больше\nстановитесь настоящими исследователями. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðïöïçå, âú ôçå ïòâïéìéòû â\nãéìûäéé.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Âú äàçå öïäéìé â üëòðåäéøéý...[K]\nÄà, ÿ áú òëàèàì, œóï âú âòæ áïìûšå\nòóàîïâéóåòû îàòóïÿþéíé éòòìåäïâàóåìÿíé.</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P01A/um1204.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Did something happen at\nthe guild?</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P01A/um1302.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> В гильдии что-то произошло?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Â ãéìûäéé œóï-óï ðñïéèïšìï?</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P01A/um1311.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P01A/um1314.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Whoever\'s stealing the Time\nGears is pretty brazen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Catch the thief and show him\nwhat a big mistake he made!</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P01A/um1317.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Похищать Шестерни Времени это\nочень дерзкий поступок.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Поймайте похитителя и покажите\nему, насколько большую ошибку он совершил!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðïöéþàóû Šåòóåñîé Âñåíåîé üóï\nïœåîû äåñèëéê ðïòóôðïë.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðïêíàêóå ðïöéóéóåìÿ é ðïëàçéóå\nåíô, îàòëïìûëï áïìûšôý ïšéáëô ïî òïâåñšéì!</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P01A/um1402.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P01A/um1602.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> So the great [CS:N]Dusknoir[CR] and\n[CS:N]Grovyle[CR] were both from the future…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Well, that\'s a stunner! I\'m\namazed, I tell you!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Так значит и великий [CS:N]Даскнуар[CR],\nи [CS:N]Гровайл[CR] прибыли из будущего...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Вот это неожиданность! Должен\nсказать, я поражён!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Óàë èîàœéó é âåìéëéê [CS:N]Äàòëîôàñ[CR],\né [CS:N]Ãñïâàêì[CR] ðñéáúìé éè áôäôþåãï...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Âïó üóï îåïçéäàîîïòóû! Äïìçåî\nòëàèàóû, ÿ ðïñàçæî!</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P01A/um1609.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I want to know how the great\n[CS:N]Dusknoir[CR] intends to take down [CS:N]Grovyle[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I\'d like to go see that fight,\nbut...[K]I\'d better not get in the way.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я хочу узнать, как великий\n[CS:N]Даскнуар[CR] хочет схватить [CS:N]Гровайла[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я бы посмотрел на эту битву,\nно...[K] Лучше не буду встревать.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ öïœô ôèîàóû, ëàë âåìéëéê\n[CS:N]Äàòëîôàñ[CR] öïœåó òöâàóéóû [CS:N]Ãñïâàêìà[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ áú ðïòíïóñåì îà üóô áéóâô,\nîï...[K] Ìôœšå îå áôäô âòóñåâàóû.</t>
   </si>
 </sst>
 </file>
@@ -205,7 +313,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -246,11 +354,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -271,6 +388,18 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -553,10 +682,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -788,17 +917,184 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="42" x14ac:dyDescent="0.3">
-      <c r="B15" s="4">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6">
         <v>451</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="7" t="s">
         <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="4">
+        <v>426</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" s="6">
+        <v>429</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" s="8">
+        <v>407</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" s="10"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+    </row>
+    <row r="20" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" s="6"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+    </row>
+    <row r="21" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" s="4">
+        <v>385</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A22" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B22" s="6">
+        <v>388</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B23" s="4">
+        <v>363</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="6"/>
+      <c r="B24" s="6">
+        <v>366</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B25" s="4">
+        <v>341</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B26" s="4">
+        <v>344</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Все персонажи/Урсаринг.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Урсаринг.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="119">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -283,6 +283,99 @@
   </si>
   <si>
     <t xml:space="preserve"> Ÿ áú ðïòíïóñåì îà üóô áéóâô,\nîï...[K] Ìôœšå îå áôäô âòóñåâàóû.</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P01A/um2103.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:N]Grovyle[CR] was actually gathering\nup the Time Gears to save the world?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Well, that\'s...[K]hard to believe.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hey, I\'m sorry.[K] It\'s not that I\ndon\'t trust you or anything…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> It\'s just that we only just heard\nthe news. And frankly, we\'re overwhelmed!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> На самом деле, [CS:N]Гровайл[CR] собирал\nШестерни Времени, чтобы спасти мир?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ну, в это...[K] Трудно поверить.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Слушайте, без обид.[K] Не то\nчтобы я вам не верю или около того...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мы просто только что обо всём\nузнали. И честно, мы потрясены!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îà òàíïí äåìå, [CS:N]Ãñïâàêì[CR] òïáéñàì\nŠåòóåñîé Âñåíåîé, œóïáú òðàòóé íéñ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îô, â üóï...[K] Óñôäîï ðïâåñéóû.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Òìôšàêóå, áåè ïáéä.[K] Îå óï\nœóïáú ÿ âàí îå âåñý éìé ïëïìï óïãï...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íú ðñïòóï óïìûëï œóï ïáï âòæí\nôèîàìé. É œåòóîï, íú ðïóñÿòåîú!</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P01A/um2108.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hey, I believe too! I believe\nin you!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We\'ve never heard anything\nabout the [CS:P]Hidden Land[CR]…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> But if anyone can find it, I\'m\nsure that you can![K] Go for it!</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P02A/um2204.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Эй, я тоже верю! Я верю в вас!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мы, конечно, ничего не слышали\nо [CS:P]Сокрытых Землях[CR]...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Но если кто и сможет их найти,\nто это вы![K] Дерзайте!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Üê, ÿ óïçå âåñý! Ÿ âåñý â âàò!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íú, ëïîåœîï, îéœåãï îå òìúšàìé\nï [CS:P]Òïëñúóúö Èåíìÿö[CR]...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îï åòìé ëóï é òíïçåó éö îàêóé,\nóï üóï âú![K] Äåñèàêóå!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> You can count on my support!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We need you to succeed![K]\nSave the world!</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P01A/um2402.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Вы можете рассчитывать на мою\nподдержку!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Нам нужен ваш успех![K] Спасите\nмир!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Âú íïçåóå ñàòòœéóúâàóû îà íïý\nðïääåñçëô!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îàí îôçåî âàš ôòðåö![K] Òðàòéóå\níéñ!</t>
   </si>
 </sst>
 </file>
@@ -682,10 +775,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1084,17 +1177,158 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="B26" s="4">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6">
         <v>344</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="E26" s="7" t="s">
         <v>87</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B27" s="4">
+        <v>313</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B28" s="4">
+        <v>316</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B29" s="4">
+        <v>319</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="6"/>
+      <c r="B30" s="6">
+        <v>322</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B31" s="4">
+        <v>288</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B32" s="4">
+        <v>291</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A33" s="6"/>
+      <c r="B33" s="6">
+        <v>294</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B34" s="4">
+        <v>266</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B35" s="4">
+        <v>269</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Все персонажи/Урсаринг.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Урсаринг.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -376,6 +376,33 @@
   </si>
   <si>
     <t xml:space="preserve"> Îàí îôçåî âàš ôòðåö![K] Òðàòéóå\níéñ!</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P01A/um2502.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Yeah, it\'s me.[K] I\'m [CS:N]Ursaring[CR].[K]\n...Well, that\'s obvious, isn\'t it?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> It\'s hard to tell us apart now.\nIt can be annoying.</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P01A/us0109.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Да, это я.[K] Я [CS:N]Урсаринг[CR].[K]\n...Ну, очевидно же, да?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Нас теперь трудно различить.\nЭто несколько неудобно.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Äà, üóï ÿ.[K] Ÿ [CS:N]Ôñòàñéîã[CR].[K]\n...Îô, ïœåâéäîï çå, äà?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îàò óåðåñû óñôäîï ñàèìéœéóû.\nÜóï îåòëïìûëï îåôäïáîï.</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P01A/us3102.ssb</t>
   </si>
 </sst>
 </file>
@@ -775,10 +802,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1317,18 +1344,55 @@
         <v>117</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="B35" s="4">
+    <row r="35" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A35" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B35" s="6">
         <v>269</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="D35" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="E35" s="5" t="s">
+      <c r="E35" s="7" t="s">
         <v>118</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A36" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B36" s="4">
+        <v>244</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A37" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B37" s="6">
+        <v>247</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Все персонажи/Урсаринг.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Урсаринг.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="181">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -403,6 +403,165 @@
   </si>
   <si>
     <t>SCRIPT/T01P01A/us3102.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P01A/us0201.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> It\'s me, [CS:N]Ursaring[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Did you really go out to some\nplace called [CS:P]Blizzard Island[CR]?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sounds mighty chilly…</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P01A/us0207.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Это я, [CS:N]Урсаринг[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Вы действительно были на\nкаком-то [CS:P]Острове Метели[CR]?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Похоже, там очень холодно...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Üóï ÿ, [CS:N]Ôñòàñéîã[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Âú äåêòóâéóåìûîï áúìé îà\nëàëïí-óï [CS:P]Ïòóñïâå Íåóåìé[CR]?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðïöïçå, óàí ïœåîû öïìïäîï...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> It\'s been peaceful lately.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The weather\'s been great too.\nWarm and pleasant, the way I like it.</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P01A/us0306.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> В округе довольно спокойно.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> И погода хорошая. Тёплая и\nприятная, всё как я люблю.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Â ïëñôãå äïâïìûîï òðïëïêîï.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> É ðïãïäà öïñïšàÿ. Óæðìàÿ é\nðñéÿóîàÿ, âòæ ëàë ÿ ìýáìý.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Oh, hey, now what\'s with your\ncute little buddy today?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> О, вы сегодня гуляете с вашим\nмаленьким, милым приятелем?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ï, âú òåãïäîÿ ãôìÿåóå ò âàšéí\níàìåîûëéí, íéìúí ðñéÿóåìåí?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Huh?[K] Did I see that little cute\nbuddy of yours today?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nope. Can\'t say I have.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Что?[K] Видел ли вашего миленького\nприятеля?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Не-а. Я никого не видел.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Œóï?[K] Âéäåì ìé âàšåãï íéìåîûëïãï\nðñéÿóåìÿ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îå-à. Ÿ îéëïãï îå âéäåì.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> What?![K] Your little buddy\'s sick?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Что?![K] Ваш малыш болен?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Œóï?![K] Âàš íàìúš áïìåî?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Oh...[K] So your little buddy had to\ngo back to the sea…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ох...[K] Значит, вашему малышу\nнужно было вернуться в море...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ïö...[K] Èîàœéó, âàšåíô íàìúšô\nîôçîï áúìï âåñîôóûòÿ â íïñå...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The weather\'s nice as usual.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SCRIPT/T01P01A/us0308.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Погода как всегда прекрасна.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðïãïäà ëàë âòåãäà ðñåëñàòîà.</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P01A/us0401.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We came back to Treasure Town\nfor a rare visit. I\'m shocked by the news!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Little [CS:N]Azurill[CR]\'s asleep and won\'t\nwake up?!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SCRIPT/T01P01A/us2101.ssb </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мы не так давно вернулись в\nГород Сокровищ. Я просто в шоке с того,\nчто происходит!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Малютка [CS:N]Азурилл[CR] уснул и не\nможет проснуться?!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íú îå óàë äàâîï âåñîôìéòû â\nÃïñïä Òïëñïâéþ. Ÿ ðñïòóï â šïëå ò óïãï,\nœóï ðñïéòöïäéó!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íàìýóëà [CS:N]Àèôñéìì[CR] ôòîôì é îå\níïçåó ðñïòîôóûòÿ?!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> You\'re the only hope![K] You have\nto beat [CS:N]Darkrai[CR] for us! Please!</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P01A/us2201.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Вы наша единственная надежда![K]\nПрошу, ради нас, победите [CS:N]Даркрая[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Âú îàšà åäéîòóâåîîàÿ îàäåçäà![K]\nÐñïšô, ñàäé îàò, ðïáåäéóå [CS:N]Äàñëñàÿ[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> You\'ve got my thanks for saving\nthe world!</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P01A/us2210.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Спасибо вам за спасение мира!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Òðàòéáï âàí èà òðàòåîéå íéñà!</t>
   </si>
 </sst>
 </file>
@@ -433,7 +592,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -483,11 +642,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -520,6 +699,18 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -802,10 +993,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1379,20 +1570,269 @@
       </c>
     </row>
     <row r="37" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A37" s="6" t="s">
+      <c r="A37" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="B37" s="6">
+      <c r="B37" s="10">
         <v>247</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C37" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="D37" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="E37" s="7" t="s">
+      <c r="E37" s="11" t="s">
         <v>126</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A38" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="B38" s="12"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+    </row>
+    <row r="39" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A39" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B39" s="4">
+        <v>219</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B40" s="4">
+        <v>222</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="12"/>
+      <c r="B41" s="12">
+        <v>225</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="D41" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="E41" s="13" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A42" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B42" s="4">
+        <v>197</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B43" s="6">
+        <v>200</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B44" s="14">
+        <v>178</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="D44" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="E44" s="15" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B45" s="4">
+        <v>156</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B46" s="6">
+        <v>159</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B47" s="14">
+        <v>137</v>
+      </c>
+      <c r="C47" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="D47" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="E47" s="15" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A48" s="6"/>
+      <c r="B48" s="6">
+        <v>118</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A49" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B49" s="4">
+        <v>99</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A50" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="B50" s="6"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+    </row>
+    <row r="51" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A51" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B51" s="4">
+        <v>77</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A52" s="6"/>
+      <c r="B52" s="6">
+        <v>80</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A53" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="B53" s="14">
+        <v>58</v>
+      </c>
+      <c r="C53" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="D53" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="E53" s="15" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A54" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B54" s="4">
+        <v>39</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Все персонажи/Урсаринг.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Урсаринг.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="185">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -562,6 +562,18 @@
   </si>
   <si>
     <t xml:space="preserve"> Òðàòéáï âàí èà òðàòåîéå íéñà!</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P01A/us2301.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> If you want to evolve, maybe\nyou should head over to [CS:P]Luminous\nSpring[CR] again.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Если вы захотите\nэволюционировать, вернитесь к [CS:P]Сияющему\nИсточнику[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Åòìé âú èàöïóéóå\nüâïìýøéïîéñïâàóû, âåñîéóåòû ë [CS:P]Òéÿýþåíô\nÉòóïœîéëô[CR].</t>
   </si>
 </sst>
 </file>
@@ -993,10 +1005,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E54"/>
+  <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1835,6 +1847,23 @@
         <v>180</v>
       </c>
     </row>
+    <row r="55" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A55" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="B55" s="6">
+        <v>19</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>184</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
